--- a/docs/Эксперименты .xlsx
+++ b/docs/Эксперименты .xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Эксперимент 1 (Кластеризация)" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Кол-во файлов</t>
   </si>
   <si>
     <t>Среднее время (мс)</t>
+  </si>
+  <si>
+    <t>Кол-во слов</t>
+  </si>
+  <si>
+    <t>Время работы (мс)</t>
   </si>
 </sst>
 </file>
@@ -347,7 +354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -417,4 +424,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>52.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>134.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Эксперименты .xlsx
+++ b/docs/Эксперименты .xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="Эксперимент 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Эксперимент 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Эксперимент 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Эксперимент 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Эксперимент 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,12 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Кол-во файлов</t>
-  </si>
-  <si>
-    <t>Среднее время (мс)</t>
   </si>
   <si>
     <t>Кол-во слов</t>
@@ -33,17 +33,38 @@
   <si>
     <t>Время работы (мс)</t>
   </si>
+  <si>
+    <t>Время работы при фиксированном кол-ве файлов (15000)</t>
+  </si>
+  <si>
+    <t>Время работы при фиксированном кол-ве слов файле (15)</t>
+  </si>
+  <si>
+    <t>Кол-во классов</t>
+  </si>
+  <si>
+    <t>Время работы в зависимости от кол-во классов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -67,9 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -87,6 +111,4664 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время работы при фиксированном кол-ве слов файле (15)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Эксперимент 1'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время работы (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперимент 1'!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперимент 1'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2195.7199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2735.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3108.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3283.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3509.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3813.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD7B-4E62-A78D-B9E79A7BFE50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1580225679"/>
+        <c:axId val="1580223183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1580225679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580223183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1580223183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580225679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время работы при фиксированном кол-ве слов (15000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Эксперимент 2'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Время работы при фиксированном кол-ве слов (15000)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Время работы (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперимент 2'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперимент 2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>426.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1309.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3031.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5926.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7626-46C3-A213-B37F5B0E0177}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1574601935"/>
+        <c:axId val="1574598191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1574601935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574598191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1574598191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574601935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Время работы при фиксированном кол-ве слов файле (15)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперимент 3'!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперимент 3'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>298.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>854.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1166.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1422.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1690.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D47-41AB-9E07-A19B1E04CBC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1385862655"/>
+        <c:axId val="1385860575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1385862655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1385860575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1385860575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1385862655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время работы при фиксированном кол-ве файлов (15000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперимент 4'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперимент 4'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>287.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>568.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>855.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1139.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F69C-4D17-8D23-76B8C5D71690}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1511532991"/>
+        <c:axId val="1511533823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1511532991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1511533823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1511533823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1511532991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперимент 5'!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперимент 5'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>569.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>571.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>564.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>577.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C57-462C-AC34-7D33B2FC9585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1623119519"/>
+        <c:axId val="1623107871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1623119519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1623107871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1623107871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1623119519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28573</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,74 +5037,88 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>114.16</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="B3" s="1">
-        <v>455.91</v>
+        <v>2195.7199999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="B4" s="1">
-        <v>1768.89</v>
+        <v>2735.15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>20</v>
+        <v>15000</v>
       </c>
       <c r="B5" s="1">
-        <v>6295.44</v>
+        <v>3108.07</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3283.41</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3509.29</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3813.6</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -430,78 +5126,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>52.71</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>110.7</v>
-      </c>
+        <v>426.88</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>134.56</v>
-      </c>
+        <v>1309.1400000000001</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3031.75</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5926.5</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>10</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
@@ -521,6 +5210,249 @@
       <c r="C10" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>298.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>576.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>854.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1166.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1422.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1690.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>287.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>568.70000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>855.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1139.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>569.83000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>571.17999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>564.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>575.42999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>579.29999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>577.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Эксперименты .xlsx
+++ b/docs/Эксперименты .xlsx
@@ -1512,6 +1512,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Время работы в зависимости от кол-во классов</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4746,8 +4778,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -5377,7 +5409,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Эксперименты .xlsx
+++ b/docs/Эксперименты .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперимент 1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,10 @@
     <sheet name="Эксперимент 4" sheetId="4" r:id="rId4"/>
     <sheet name="Эксперимент 5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">'Эксперимент 4'!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.1" hidden="1">'Эксперимент 4'!$B$3:$B$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +69,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,10 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,7 +162,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время работы при фиксированном кол-ве слов файле (15)</a:t>
+              <a:t>Время кластеризации в зависимости от количества слов в файле</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -185,9 +199,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11276866148339"/>
+          <c:y val="0.124254573588527"/>
+          <c:w val="0.85219113367527755"/>
+          <c:h val="0.64057541234376281"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -227,6 +251,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5502917507212431E-2"/>
+                  <c:y val="-7.491045920144937E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Эксперимент 1'!$A$3:$A$8</c:f>
@@ -281,7 +356,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BD7B-4E62-A78D-B9E79A7BFE50}"/>
@@ -465,6 +540,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -503,7 +579,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время работы при фиксированном кол-ве слов (15000)</a:t>
+              <a:t>Время кластеризации в зависимости от числа файлов при фиксированном количестве слов</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -540,9 +616,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12355825212709166"/>
+          <c:y val="0.17925558312655088"/>
+          <c:w val="0.84861441388082826"/>
+          <c:h val="0.62819431690145433"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -553,7 +639,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Время работы при фиксированном кол-ве слов (15000)</c:v>
+                  <c:v>Время работы при фиксированном кол-ве файлов (15000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Время работы (мс)</c:v>
@@ -585,6 +671,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4829370080081808E-2"/>
+                  <c:y val="-6.0235113290739405E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Эксперимент 2'!$A$3:$A$6</c:f>
@@ -627,7 +764,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7626-46C3-A213-B37F5B0E0177}"/>
@@ -811,6 +948,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -848,16 +986,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Время работы при фиксированном кол-ве слов файле (15)</a:t>
+              <a:t>Время классификации в зависимости от количества слов в файле</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -893,9 +1027,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10083110640698739"/>
+          <c:y val="0.13117591395645581"/>
+          <c:w val="0.86028697827598721"/>
+          <c:h val="0.71604510925594123"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -924,6 +1068,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4631964757913543E-2"/>
+                  <c:y val="-8.7356321839080452E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Эксперимент 3'!$A$3:$A$8</c:f>
@@ -978,7 +1173,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D47-41AB-9E07-A19B1E04CBC7}"/>
@@ -1162,6 +1357,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1200,7 +1396,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время работы при фиксированном кол-ве файлов (15000)</a:t>
+              <a:t>Время классификации в зависимости от количества файлов</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1237,9 +1433,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.715424228342999E-2"/>
+          <c:y val="0.13548858447488585"/>
+          <c:w val="0.87768779798468466"/>
+          <c:h val="0.70670952432315826"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1268,6 +1474,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9614416803018923E-2"/>
+                  <c:y val="-3.2876712328767124E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Эксперимент 4'!$A$3:$A$6</c:f>
@@ -1310,7 +1567,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F69C-4D17-8D23-76B8C5D71690}"/>
@@ -1494,6 +1751,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4633,15 +4891,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22423</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4664,19 +4922,140 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01173</cdr:x>
+      <cdr:y>0.12312</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05983</cdr:x>
+      <cdr:y>0.92211</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-1223961" y="1785939"/>
+          <a:ext cx="3028950" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200"/>
+            <a:t>работы</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t> (мс)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11263</cdr:x>
+      <cdr:y>0.85714</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96791</cdr:x>
+      <cdr:y>0.95584</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="914400" y="3143250"/>
+          <a:ext cx="6943725" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Количество</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> слов в файле</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>62387</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4698,20 +5077,97 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01073</cdr:x>
+      <cdr:y>0.18114</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06036</cdr:x>
+      <cdr:y>0.92308</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-1171573" y="1943103"/>
+          <a:ext cx="2847977" cy="352422"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время работы (мс)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11133</cdr:x>
+      <cdr:y>0.88337</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96707</cdr:x>
+      <cdr:y>0.96526</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="790576" y="3390900"/>
+          <a:ext cx="6076950" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество файлов</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28573</xdr:colOff>
+      <xdr:colOff>95248</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>553760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4733,20 +5189,124 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01172</cdr:x>
+      <cdr:y>0.12997</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05468</cdr:x>
+      <cdr:y>0.84881</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-1047748" y="1600203"/>
+          <a:ext cx="2581279" cy="314322"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>работы</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>  (мс)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09504</cdr:x>
+      <cdr:y>0.90981</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95686</cdr:x>
+      <cdr:y>0.98143</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="695327" y="3267075"/>
+          <a:ext cx="6305549" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Количество слов в файле</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55852</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4768,7 +5328,84 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01698</cdr:x>
+      <cdr:y>0.13699</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05336</cdr:x>
+      <cdr:y>0.90411</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-1057274" y="1666878"/>
+          <a:ext cx="2667000" cy="285746"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время работы (мс)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09665</cdr:x>
+      <cdr:y>0.90809</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97253</cdr:x>
+      <cdr:y>0.9589</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="714376" y="3657601"/>
+          <a:ext cx="6473956" cy="204654"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество файлов</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5069,7 +5706,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,10 +5716,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5156,10 +5793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5170,10 +5807,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5223,7 +5860,6 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5241,6 +5877,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -5254,8 +5893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,10 +5904,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5340,7 +5979,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,10 +5989,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5408,7 +6047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -5419,10 +6058,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/docs/Эксперименты .xlsx
+++ b/docs/Эксперименты .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперимент 1" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -10856,15 +10856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>45759</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>464859</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>75155</xdr:rowOff>
+      <xdr:rowOff>18005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15682,8 +15682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15772,8 +15772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15870,7 +15870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -15955,7 +15955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
